--- a/biology/Botanique/Himantoglossum_adriaticum/Himantoglossum_adriaticum.xlsx
+++ b/biology/Botanique/Himantoglossum_adriaticum/Himantoglossum_adriaticum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Himantoglossum adriaticum
 L'Himantoglosse adriatique (Himantoglossum adriaticum) est une espèce d'orchidée, native du sud de l'Europe. Elle se rencontre dans les prairies sèches de basse altitude de l'Italie, la Croatie, l'Autriche et la République tchèque.
